--- a/location.xlsx
+++ b/location.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,352 +397,352 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abandze</t>
+          <t>Aketekyiwa</t>
         </is>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.36986301369863</v>
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4.054054054054054</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Afrago Junction</t>
+          <t>Anomabo</t>
         </is>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.36986301369863</v>
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>9.45945945945946</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aketekyiwa</t>
+          <t>Biriwa</t>
         </is>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>4.10958904109589</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>5.263157894736842</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>7.692307692307693</v>
+        <v>43.58974358974359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Amissakrom</t>
+          <t>Egyirefa</t>
         </is>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>4.10958904109589</v>
+      <c r="E5">
+        <v>4.054054054054054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amonda</t>
+          <t>Insanfo(NSANFO)</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.36986301369863</v>
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5.405405405405405</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>10.25641025641026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anomabo</t>
+          <t>Saltpond Zongo</t>
         </is>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4.054054054054054</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>15.38461538461539</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Asafora</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4.10958904109589</v>
+      <c r="E8">
+        <v>9.45945945945946</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2.564102564102564</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biriwa</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>28.76712328767123</v>
+          <t>Abandze</t>
+        </is>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>63.1578947368421</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>43.58974358974359</v>
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Buranamoah</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1.36986301369863</v>
+          <t>Afrago Junction</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyirefa</t>
-        </is>
-      </c>
-      <c r="B11">
+          <t>Amissakrom</t>
+        </is>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>5.263157894736842</v>
+        <v>4.054054054054054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ekon</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1.36986301369863</v>
+          <t>Amonda</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Insanfo(NSANFO)</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>5.47945205479452</v>
+          <t>Asafora</t>
+        </is>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>5.263157894736842</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>10.25641025641026</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kormantse</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1.36986301369863</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.564102564102564</v>
+          <t>Buranamoah</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Makassium</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1.36986301369863</v>
+          <t>Ekon</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mfanteman</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1.36986301369863</v>
+          <t>Kormantse</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.351351351351351</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pomasi(Pomase)</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1.36986301369863</v>
+          <t>Makassium</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saltpond Zongo</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>4.10958904109589</v>
+          <t>Mfanteman</t>
+        </is>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>5.263157894736842</v>
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Waakrom</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.564102564102564</v>
+          <t>Pomasi(Pomase)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Waakrom</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4.054054054054054</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.564102564102564</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Yamoransa</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="D21">
         <v>7</v>
       </c>
-      <c r="C20">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="F20">
+      <c r="E21">
+        <v>9.45945945945946</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>10.25641025641026</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>5.128205128205128</v>
       </c>
     </row>
   </sheetData>

--- a/location.xlsx
+++ b/location.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,352 +397,352 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aketekyiwa</t>
+          <t>Abandze</t>
         </is>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4.054054054054054</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>7.692307692307693</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anomabo</t>
+          <t>Afrago Junction</t>
         </is>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>9.45945945945946</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>15.38461538461539</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Biriwa</t>
+          <t>Aketekyiwa</t>
         </is>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>61.11111111111111</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>29.72972972972973</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>43.58974358974359</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyirefa</t>
+          <t>Amissakrom</t>
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4.054054054054054</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Insanfo(NSANFO)</t>
+          <t>Amonda</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>10.25641025641026</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saltpond Zongo</t>
+          <t>Anomabo</t>
         </is>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>5.555555555555555</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>15.38461538461539</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Asafora</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>4.054054054054054</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>9.45945945945946</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>5.128205128205128</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Abandze</t>
-        </is>
+          <t>Biriwa</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>28.76712328767123</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>1.351351351351351</v>
+        <v>63.1578947368421</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>43.58974358974359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Afrago Junction</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1.351351351351351</v>
+          <t>Buranamoah</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amissakrom</t>
-        </is>
+          <t>Egyirefa</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4.10958904109589</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>4.054054054054054</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amonda</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1.351351351351351</v>
+          <t>Ekon</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Asafora</t>
-        </is>
+          <t>Insanfo(NSANFO)</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>5.47945205479452</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>4.054054054054054</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>2.564102564102564</v>
+        <v>10.25641025641026</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Buranamoah</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1.351351351351351</v>
+          <t>Kormantse</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ekon</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1.351351351351351</v>
+          <t>Makassium</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kormantse</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1.351351351351351</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.564102564102564</v>
+          <t>Mfanteman</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Makassium</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1.351351351351351</v>
+          <t>Pomasi(Pomase)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mfanteman</t>
-        </is>
+          <t>Saltpond Zongo</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>4.10958904109589</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1.351351351351351</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pomasi(Pomase)</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1.351351351351351</v>
+          <t>Waakrom</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4.10958904109589</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Waakrom</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>4.054054054054054</v>
+          <t>Yamoransa</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>9.58904109589041</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>2.564102564102564</v>
+        <v>10.25641025641026</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Yamoransa</t>
-        </is>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>9.58904109589041</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>9.45945945945946</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>10.25641025641026</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
   </sheetData>
